--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fga-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fga-Itgav.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>21.935503913448</v>
+        <v>3.613557098936667</v>
       </c>
       <c r="R2">
-        <v>197.419535221032</v>
+        <v>32.52201389043</v>
       </c>
       <c r="S2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="T2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
         <v>53.88578505843467</v>
@@ -632,10 +632,10 @@
         <v>484.9720655259121</v>
       </c>
       <c r="S3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="T3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>27.625957432698</v>
+        <v>20.45463754817</v>
       </c>
       <c r="R4">
-        <v>248.633616894282</v>
+        <v>184.09173793353</v>
       </c>
       <c r="S4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="T4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
     </row>
   </sheetData>
